--- a/TiMeS_rsfMRI_info.xlsx
+++ b/TiMeS_rsfMRI_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maylismuller/Desktop/EPFL_DOCS/Master/MA4/Project Hummel/uphummel_MA4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA4A055-000E-5244-8730-9B89596AA5D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784B73A7-A1E3-C546-8872-43B9D0FDCB9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="available_rsfMRI" sheetId="1" r:id="rId1"/>
@@ -31,21 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>StudyID</t>
-  </si>
-  <si>
-    <t>SES-T1</t>
-  </si>
-  <si>
-    <t>SES-T2</t>
-  </si>
-  <si>
-    <t>SES-T3</t>
-  </si>
-  <si>
-    <t>SES-T4</t>
   </si>
   <si>
     <t>Lesioned hemisphere</t>
@@ -519,7 +507,7 @@
   <dimension ref="A1:AD1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -531,31 +519,21 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -577,25 +555,23 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -617,25 +593,23 @@
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -657,18 +631,16 @@
     </row>
     <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -694,18 +666,16 @@
     </row>
     <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -732,18 +702,16 @@
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -770,18 +738,16 @@
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -808,18 +774,16 @@
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -846,18 +810,16 @@
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -884,18 +846,16 @@
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -922,18 +882,16 @@
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -960,18 +918,16 @@
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -998,18 +954,16 @@
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1036,18 +990,16 @@
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="B14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1074,18 +1026,16 @@
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-      <c r="F15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1112,18 +1062,16 @@
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="B16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
-      <c r="F16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1150,18 +1098,16 @@
     </row>
     <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1188,18 +1134,16 @@
     </row>
     <row r="18" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1226,18 +1170,16 @@
     </row>
     <row r="19" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -1264,18 +1206,16 @@
     </row>
     <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1302,18 +1242,16 @@
     </row>
     <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
-      <c r="F21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -1340,18 +1278,16 @@
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1378,18 +1314,16 @@
     </row>
     <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>

--- a/TiMeS_rsfMRI_info.xlsx
+++ b/TiMeS_rsfMRI_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maylismuller/Desktop/EPFL_DOCS/Master/MA4/Project Hummel/uphummel_MA4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784B73A7-A1E3-C546-8872-43B9D0FDCB9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0192A853-919E-574F-B5E4-D140A0788A46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,9 +32,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
-  <si>
-    <t>StudyID</t>
-  </si>
   <si>
     <t>Lesioned hemisphere</t>
   </si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>sub-TIMESwp11s081</t>
+  </si>
+  <si>
+    <t>subject_id</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <dimension ref="A1:AD1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -517,13 +517,13 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -533,7 +533,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -555,13 +555,13 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
@@ -571,7 +571,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -593,13 +593,13 @@
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
@@ -609,7 +609,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -631,13 +631,13 @@
     </row>
     <row r="4" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -666,13 +666,13 @@
     </row>
     <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -702,13 +702,13 @@
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -738,13 +738,13 @@
     </row>
     <row r="7" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -774,13 +774,13 @@
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -810,13 +810,13 @@
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -846,13 +846,13 @@
     </row>
     <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -882,13 +882,13 @@
     </row>
     <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -918,13 +918,13 @@
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -954,13 +954,13 @@
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -990,13 +990,13 @@
     </row>
     <row r="14" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -1026,13 +1026,13 @@
     </row>
     <row r="15" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -1062,13 +1062,13 @@
     </row>
     <row r="16" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -1098,13 +1098,13 @@
     </row>
     <row r="17" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -1134,13 +1134,13 @@
     </row>
     <row r="18" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
@@ -1170,13 +1170,13 @@
     </row>
     <row r="19" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -1206,13 +1206,13 @@
     </row>
     <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -1242,13 +1242,13 @@
     </row>
     <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -1278,13 +1278,13 @@
     </row>
     <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -1314,13 +1314,13 @@
     </row>
     <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>

--- a/TiMeS_rsfMRI_info.xlsx
+++ b/TiMeS_rsfMRI_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maylismuller/Desktop/EPFL_DOCS/Master/MA4/Project Hummel/uphummel_MA4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0192A853-919E-574F-B5E4-D140A0788A46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DB1E91-547C-794D-9CEC-70160971A19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/TiMeS_rsfMRI_info.xlsx
+++ b/TiMeS_rsfMRI_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maylismuller/Desktop/EPFL_DOCS/Master/MA4/Project Hummel/uphummel_MA4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DB1E91-547C-794D-9CEC-70160971A19C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47CD4F0-D468-D244-9ABF-119D9FFC3CF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,9 +506,7 @@
   </sheetPr>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
